--- a/Language_Merge.xlsx
+++ b/Language_Merge.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,10 +407,13 @@
         <v>Key</v>
       </c>
       <c r="B1" t="str">
-        <v>ba</v>
+        <v>bn</v>
       </c>
       <c r="C1" t="str">
         <v>en</v>
+      </c>
+      <c r="D1" t="str">
+        <v>zhCn</v>
       </c>
     </row>
     <row r="2">
@@ -418,10 +421,13 @@
         <v>tip.success</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>সফলতা</v>
       </c>
       <c r="C2" t="str">
         <v>Success</v>
+      </c>
+      <c r="D2" t="str">
+        <v>成功</v>
       </c>
     </row>
     <row r="3">
@@ -429,10 +435,13 @@
         <v>tip.failed</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>ব্যর্থ হয়েছে</v>
       </c>
       <c r="C3" t="str">
         <v>Failed</v>
+      </c>
+      <c r="D3" t="str">
+        <v>失败</v>
       </c>
     </row>
     <row r="4">
@@ -440,10 +449,13 @@
         <v>tip.loading</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>লোড হচ্ছে...</v>
       </c>
       <c r="C4" t="str">
         <v>Loading...</v>
+      </c>
+      <c r="D4" t="str">
+        <v>正在加载...</v>
       </c>
     </row>
     <row r="5">
@@ -451,10 +463,13 @@
         <v>login.LogIn</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>লগ ইন করুন</v>
       </c>
       <c r="C5" t="str">
         <v>Log In</v>
+      </c>
+      <c r="D5" t="str">
+        <v>登录</v>
       </c>
     </row>
     <row r="6">
@@ -462,10 +477,13 @@
         <v>login.Registro</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>রেজিস্ট্রো</v>
       </c>
       <c r="C6" t="str">
         <v>Registro</v>
+      </c>
+      <c r="D6" t="str">
+        <v>注册</v>
       </c>
     </row>
     <row r="7">
@@ -473,10 +491,13 @@
         <v>login.correctAccountNumber</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>দয়া করে একটি সঠিক 11-সংখ্যার ফোন নম্বর লিখুন।</v>
       </c>
       <c r="C7" t="str">
         <v>Please enter a correct 11-digit phone number.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>请输入正确的 11 位电话号码。</v>
       </c>
     </row>
     <row r="8">
@@ -484,10 +505,13 @@
         <v>login.correctPassword</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>8 থেকে 20 সংখ্যার একটি পাসওয়ার্ড সেট করুন</v>
       </c>
       <c r="C8" t="str">
         <v>set a password of 8 to 20 digits</v>
+      </c>
+      <c r="D8" t="str">
+        <v>设置 8 至 20 位数字的密码</v>
       </c>
     </row>
     <row r="9">
@@ -495,10 +519,13 @@
         <v>login.differentPasswords</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>পাসওয়ার্ড ভিন্ন</v>
       </c>
       <c r="C9" t="str">
         <v>the passwords are different</v>
+      </c>
+      <c r="D9" t="str">
+        <v>密码不同</v>
       </c>
     </row>
     <row r="10">
@@ -506,10 +533,13 @@
         <v>home.share</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>শেয়ার করুন</v>
       </c>
       <c r="C10" t="str">
         <v>Share</v>
+      </c>
+      <c r="D10" t="str">
+        <v>分享</v>
       </c>
     </row>
     <row r="11">
@@ -517,10 +547,13 @@
         <v>home.rapidInstall</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>দ্রুত ইনস্টল</v>
       </c>
       <c r="C11" t="str">
         <v>Rapid Install</v>
+      </c>
+      <c r="D11" t="str">
+        <v>快速安装</v>
       </c>
     </row>
     <row r="12">
@@ -528,10 +561,13 @@
         <v>home.donwNodeTitle</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>আরও বোনাস এবং সুবিধা বিতরণ করা হয়েছে। অপ্টিমাইজ করা সিস্টেম ইন্টারফেস এবং অ্যাক্সেস গতি।</v>
       </c>
       <c r="C12" t="str">
         <v>More bonuses and benefits distributed.  Optimized system interface and access speed.</v>
+      </c>
+      <c r="D12" t="str">
+        <v>分配更多奖金和福利。 优化系统界面和访问速度。</v>
       </c>
     </row>
     <row r="13">
@@ -539,10 +575,13 @@
         <v>home.donwTitle</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>একটি নতুন সংস্করণ আবিষ্কার করুন</v>
       </c>
       <c r="C13" t="str">
         <v>Discover a new version</v>
+      </c>
+      <c r="D13" t="str">
+        <v>发现新版本</v>
       </c>
     </row>
     <row r="14">
@@ -550,10 +589,13 @@
         <v>home.donwContent1</v>
       </c>
       <c r="B14" t="str">
-        <v/>
+        <v>আরো গেম যোগ করা হয়েছে.</v>
       </c>
       <c r="C14" t="str">
         <v xml:space="preserve">More games added. </v>
+      </c>
+      <c r="D14" t="str">
+        <v>添加更多游戏。</v>
       </c>
     </row>
     <row r="15">
@@ -561,10 +603,13 @@
         <v>home.donwContent2</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>আরও বোনাস এবং সুবিধা বিতরণ করা হয়েছে।</v>
       </c>
       <c r="C15" t="str">
         <v xml:space="preserve">More bonuses and benefits distributed. </v>
+      </c>
+      <c r="D15" t="str">
+        <v>分配更多的奖金和福利。</v>
       </c>
     </row>
     <row r="16">
@@ -572,10 +617,13 @@
         <v>home.donwContent3</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>সিস্টেম ইন্টারফেস এবং গতি</v>
       </c>
       <c r="C16" t="str">
         <v xml:space="preserve">System interface and speed </v>
+      </c>
+      <c r="D16" t="str">
+        <v xml:space="preserve">系统接口和速度 </v>
       </c>
     </row>
     <row r="17">
@@ -583,10 +631,13 @@
         <v>home.donwContent4</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>অপ্টিমাইজড অ্যাক্সেস।</v>
       </c>
       <c r="C17" t="str">
         <v>optimized access.</v>
+      </c>
+      <c r="D17" t="str">
+        <v>优化访问。</v>
       </c>
     </row>
     <row r="18">
@@ -594,10 +645,13 @@
         <v>home.buttomText</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>বাস্তবিক অগ্রগতি</v>
       </c>
       <c r="C18" t="str">
         <v>Actualizar Agora</v>
+      </c>
+      <c r="D18" t="str">
+        <v>更新网站</v>
       </c>
     </row>
     <row r="19">
@@ -605,10 +659,13 @@
         <v>home.donwType2Detail</v>
       </c>
       <c r="B19" t="str">
-        <v/>
+        <v>অ্যাপ্লিকেশন আপডেট করা হচ্ছে: 1. আমরা আরও গেম যোগ করেছি। 2. বোনাস এবং পুরষ্কার আরও বিতরণ। 3. সিস্টেম ইন্টারফেস এবং অ্যাক্সেস গতির অপ্টিমাইজেশন।</v>
       </c>
       <c r="C19" t="str">
         <v>Updating the application:1. We've added more games. 2. More distribution of bonuses and rewards. 3. Optimization of the system interface and access speed.</v>
+      </c>
+      <c r="D19" t="str">
+        <v>更新应用程序：1. 我们添加了更多游戏。2. 更多奖金和奖励的分配。3. 优化系统界面和访问速度。</v>
       </c>
     </row>
     <row r="20">
@@ -616,10 +673,13 @@
         <v>navigationBar.activityList</v>
       </c>
       <c r="B20" t="str">
-        <v/>
+        <v>প্রমোশন</v>
       </c>
       <c r="C20" t="str">
         <v>Promotion</v>
+      </c>
+      <c r="D20" t="str">
+        <v>促销活动</v>
       </c>
     </row>
     <row r="21">
@@ -627,10 +687,13 @@
         <v>navigationBar.configuration</v>
       </c>
       <c r="B21" t="str">
-        <v/>
+        <v>সেটিংস</v>
       </c>
       <c r="C21" t="str">
         <v>Settings</v>
+      </c>
+      <c r="D21" t="str">
+        <v>设置</v>
       </c>
     </row>
     <row r="22">
@@ -638,10 +701,13 @@
         <v>navigationBar.deposit</v>
       </c>
       <c r="B22" t="str">
-        <v/>
+        <v>জমা</v>
       </c>
       <c r="C22" t="str">
         <v>Deposit</v>
+      </c>
+      <c r="D22" t="str">
+        <v>存款</v>
       </c>
     </row>
     <row r="23">
@@ -649,2468 +715,3196 @@
         <v>navigationBar.gameLog</v>
       </c>
       <c r="B23" t="str">
-        <v/>
+        <v>খেলা রেকর্ড</v>
       </c>
       <c r="C23" t="str">
         <v>Game Record</v>
       </c>
+      <c r="D23" t="str">
+        <v>游戏记录</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>navigationBar.paymentName</v>
+        <v>navigationBar.gameDetail</v>
       </c>
       <c r="B24" t="str">
-        <v/>
+        <v>খেলা রেকর্ড</v>
       </c>
       <c r="C24" t="str">
-        <v>Withdrawal</v>
+        <v>Game Record</v>
+      </c>
+      <c r="D24" t="str">
+        <v>游戏记录详情</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>navigationBar.message</v>
+        <v>navigationBar.paymentName</v>
       </c>
       <c r="B25" t="str">
-        <v/>
+        <v>প্রত্যাহার</v>
       </c>
       <c r="C25" t="str">
-        <v>Message</v>
+        <v>Withdrawal</v>
+      </c>
+      <c r="D25" t="str">
+        <v>退出</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>navigationBar.relief</v>
+        <v>navigationBar.message</v>
       </c>
       <c r="B26" t="str">
-        <v/>
+        <v>বার্তা</v>
       </c>
       <c r="C26" t="str">
-        <v>Relief Funds</v>
+        <v>Message</v>
+      </c>
+      <c r="D26" t="str">
+        <v>留言</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>navigationBar.VIP</v>
+        <v>navigationBar.relief</v>
       </c>
       <c r="B27" t="str">
-        <v/>
+        <v>ত্রাণ তহবিল</v>
       </c>
       <c r="C27" t="str">
-        <v>VIP</v>
+        <v>Relief Funds</v>
+      </c>
+      <c r="D27" t="str">
+        <v>救济基金</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>navigationBar.treasureChest</v>
+        <v>navigationBar.VIP</v>
       </c>
       <c r="B28" t="str">
-        <v/>
+        <v>ভিআইপি</v>
       </c>
       <c r="C28" t="str">
-        <v>Treasure Chest</v>
+        <v>VIP</v>
+      </c>
+      <c r="D28" t="str">
+        <v>VIP</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>navigationBar.subordinateList</v>
+        <v>navigationBar.treasureChest</v>
       </c>
       <c r="B29" t="str">
-        <v/>
+        <v>ট্রেজার চেস্ট</v>
       </c>
       <c r="C29" t="str">
-        <v>My Direct Subordinates</v>
+        <v>Treasure Chest</v>
+      </c>
+      <c r="D29" t="str">
+        <v>宝箱</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>navigationBar.firstDeposit</v>
+        <v>navigationBar.subordinateList</v>
       </c>
       <c r="B30" t="str">
-        <v/>
+        <v>আমার সরাসরি অধস্তন</v>
       </c>
       <c r="C30" t="str">
-        <v>First Deposit</v>
+        <v>My Direct Subordinates</v>
+      </c>
+      <c r="D30" t="str">
+        <v>我的直接下属</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>navigationBar.Agent</v>
+        <v>navigationBar.firstDeposit</v>
       </c>
       <c r="B31" t="str">
-        <v/>
+        <v>প্রথম আমানত</v>
       </c>
       <c r="C31" t="str">
-        <v>Agent</v>
+        <v>First Deposit</v>
+      </c>
+      <c r="D31" t="str">
+        <v>首次存款</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>navigationBar.Level</v>
+        <v>navigationBar.Agent</v>
       </c>
       <c r="B32" t="str">
-        <v/>
+        <v>এজেন্ট</v>
       </c>
       <c r="C32" t="str">
-        <v>Level</v>
+        <v>Agent</v>
+      </c>
+      <c r="D32" t="str">
+        <v>代理</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>navigationBar.firstAid</v>
+        <v>navigationBar.Level</v>
       </c>
       <c r="B33" t="str">
-        <v/>
+        <v>স্তর</v>
       </c>
       <c r="C33" t="str">
-        <v>Contact the Service</v>
+        <v>Level</v>
+      </c>
+      <c r="D33" t="str">
+        <v>等级</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>navigationBar.websiteRebuttal</v>
+        <v>navigationBar.firstAid</v>
       </c>
       <c r="B34" t="str">
-        <v/>
+        <v>পরিষেবার সাথে যোগাযোগ করুন</v>
       </c>
       <c r="C34" t="str">
-        <v>Website rebuttal</v>
+        <v>Contact the Service</v>
+      </c>
+      <c r="D34" t="str">
+        <v>联系客服</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>navigationBar.superMemberDay</v>
+        <v>navigationBar.websiteRebuttal</v>
       </c>
       <c r="B35" t="str">
-        <v/>
+        <v>ওয়েবসাইট খন্ডন</v>
       </c>
       <c r="C35" t="str">
-        <v>Super Member Day</v>
+        <v>Website rebuttal</v>
+      </c>
+      <c r="D35" t="str">
+        <v>网站反驳</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>generalTitle.loadMore</v>
+        <v>navigationBar.superMemberDay</v>
       </c>
       <c r="B36" t="str">
-        <v/>
+        <v>সুপার সদস্য দিবস</v>
       </c>
       <c r="C36" t="str">
-        <v>Load More</v>
+        <v>Super Member Day</v>
+      </c>
+      <c r="D36" t="str">
+        <v>超级会员日</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>generalTitle.game</v>
+        <v>generalTitle.loadMore</v>
       </c>
       <c r="B37" t="str">
-        <v/>
+        <v>আরো লোড</v>
       </c>
       <c r="C37" t="str">
-        <v>Games</v>
+        <v>Load More</v>
+      </c>
+      <c r="D37" t="str">
+        <v>加载更多</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>firstAid.firstAidTitle</v>
+        <v>generalTitle.game</v>
       </c>
       <c r="B38" t="str">
-        <v/>
+        <v>গেমস</v>
       </c>
       <c r="C38" t="str">
-        <v>Welcome! Click on “CHAT” to contact us via the customer service portal.</v>
+        <v>Games</v>
+      </c>
+      <c r="D38" t="str">
+        <v>游戏</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>firstAid.onlineService</v>
+        <v>firstAid.firstAidTitle</v>
       </c>
       <c r="B39" t="str">
-        <v/>
+        <v>স্বাগতম! গ্রাহক পরিষেবা পোর্টালের মাধ্যমে আমাদের সাথে যোগাযোগ করতে "চ্যাট" এ ক্লিক করুন।</v>
       </c>
       <c r="C39" t="str">
-        <v>online service</v>
+        <v>Welcome! Click on “CHAT” to contact us via the customer service portal.</v>
+      </c>
+      <c r="D39" t="str">
+        <v>欢迎光临！点击 “CHAT”（聊天），通过客户服务门户联系我们。</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>userSet.setAvatar</v>
+        <v>firstAid.onlineService</v>
       </c>
       <c r="B40" t="str">
-        <v/>
+        <v>অনলাইন পরিষেবা</v>
       </c>
       <c r="C40" t="str">
-        <v>Profile Settings</v>
+        <v>online service</v>
+      </c>
+      <c r="D40" t="str">
+        <v>在线服务</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>userSet.myTagName</v>
+        <v>userSet.setAvatar</v>
       </c>
       <c r="B41" t="str">
-        <v/>
+        <v>প্রোফাইল সেটিংস</v>
       </c>
       <c r="C41" t="str">
-        <v>My Brand Name</v>
+        <v>Profile Settings</v>
+      </c>
+      <c r="D41" t="str">
+        <v>配置文件设置</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>userSet.registeredAccount</v>
+        <v>userSet.myTagName</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>আমার ব্র্যান্ডের নাম</v>
       </c>
       <c r="C42" t="str">
-        <v>Registered Account</v>
+        <v>My Brand Name</v>
+      </c>
+      <c r="D42" t="str">
+        <v>我的品牌名称</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>userSet.password</v>
+        <v>userSet.registeredAccount</v>
       </c>
       <c r="B43" t="str">
-        <v/>
+        <v>নিবন্ধিত অ্যাকাউন্ট</v>
       </c>
       <c r="C43" t="str">
-        <v>Password</v>
+        <v>Registered Account</v>
+      </c>
+      <c r="D43" t="str">
+        <v>注册账户</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>userSet.saqueInformation</v>
+        <v>userSet.password</v>
       </c>
       <c r="B44" t="str">
-        <v/>
+        <v>পাসওয়ার্ড</v>
       </c>
       <c r="C44" t="str">
-        <v>Withdrawal Information</v>
+        <v>Password</v>
+      </c>
+      <c r="D44" t="str">
+        <v>密码</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>userSet.quitAccount</v>
+        <v>userSet.saqueInformation</v>
       </c>
       <c r="B45" t="str">
-        <v/>
+        <v>প্রত্যাহারের তথ্য</v>
       </c>
       <c r="C45" t="str">
-        <v>Log Out</v>
+        <v>Withdrawal Information</v>
+      </c>
+      <c r="D45" t="str">
+        <v>退出信息</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>userSet.exit</v>
+        <v>userSet.quitAccount</v>
       </c>
       <c r="B46" t="str">
-        <v/>
+        <v>লগ আউট করুন</v>
       </c>
       <c r="C46" t="str">
-        <v>Exit</v>
+        <v>Log Out</v>
+      </c>
+      <c r="D46" t="str">
+        <v>退出登录</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>userSet.passwordSettings</v>
+        <v>userSet.exit</v>
       </c>
       <c r="B47" t="str">
-        <v/>
+        <v>প্রস্থান করুন</v>
       </c>
       <c r="C47" t="str">
-        <v>Password Settings</v>
+        <v>Exit</v>
+      </c>
+      <c r="D47" t="str">
+        <v>退出</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>userSet.name</v>
+        <v>userSet.passwordSettings</v>
       </c>
       <c r="B48" t="str">
-        <v/>
+        <v>পাসওয়ার্ড সেটিংস</v>
       </c>
       <c r="C48" t="str">
-        <v>Name</v>
+        <v>Password Settings</v>
+      </c>
+      <c r="D48" t="str">
+        <v>密码设置</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>userSet.phone</v>
+        <v>userSet.name</v>
       </c>
       <c r="B49" t="str">
-        <v/>
+        <v>নাম</v>
       </c>
       <c r="C49" t="str">
-        <v>Phone Number</v>
+        <v>Name</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Name</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>userSet.mail</v>
+        <v>userSet.phone</v>
       </c>
       <c r="B50" t="str">
-        <v/>
+        <v>ফোন নম্বর</v>
       </c>
       <c r="C50" t="str">
-        <v>Email</v>
+        <v>Phone Number</v>
+      </c>
+      <c r="D50" t="str">
+        <v>电话号码</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>userSet.identity</v>
+        <v>userSet.mail</v>
       </c>
       <c r="B51" t="str">
-        <v/>
+        <v>ইমেইল</v>
       </c>
       <c r="C51" t="str">
-        <v>CPF ID</v>
+        <v>Email</v>
+      </c>
+      <c r="D51" t="str">
+        <v>电子邮箱</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>userSet.corporateIdentity</v>
+        <v>userSet.identity</v>
       </c>
       <c r="B52" t="str">
-        <v/>
+        <v>CPF আইডি</v>
       </c>
       <c r="C52" t="str">
-        <v>CPFJ ID</v>
+        <v>CPF ID</v>
+      </c>
+      <c r="D52" t="str">
+        <v>CPF ID</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>userSet.quitTheCurrentAccount</v>
+        <v>userSet.corporateIdentity</v>
       </c>
       <c r="B53" t="str">
-        <v/>
+        <v>CPFJ আইডি</v>
       </c>
       <c r="C53" t="str">
-        <v>Log Out from Current Account</v>
+        <v>CPFJ ID</v>
+      </c>
+      <c r="D53" t="str">
+        <v>CPFJ ID</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>userSet.exitIllustrate</v>
+        <v>userSet.quitTheCurrentAccount</v>
       </c>
       <c r="B54" t="str">
-        <v/>
+        <v>কারেন্ট একাউন্ট থেকে লগ আউট করুন</v>
       </c>
       <c r="C54" t="str">
-        <v>Please remember your login account and password to log in again.</v>
+        <v>Log Out from Current Account</v>
+      </c>
+      <c r="D54" t="str">
+        <v>注销经常账户</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>userSet.paymentChannel</v>
+        <v>userSet.exitIllustrate</v>
       </c>
       <c r="B55" t="str">
-        <v/>
+        <v>আবার লগ ইন করতে আপনার লগইন অ্যাকাউন্ট এবং পাসওয়ার্ড মনে রাখবেন.</v>
       </c>
       <c r="C55" t="str">
-        <v>Payment Channel</v>
+        <v>Please remember your login account and password to log in again.</v>
+      </c>
+      <c r="D55" t="str">
+        <v>请记住您的登录账号和密码，以便再次登录。</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>userSet.rechargeInstructions</v>
+        <v>userSet.paymentChannel</v>
       </c>
       <c r="B56" t="str">
-        <v/>
+        <v>পেমেন্ট চ্যানেল</v>
       </c>
       <c r="C56" t="str">
-        <v>Redeemable Bonus after 1x turnover</v>
+        <v>Payment Channel</v>
+      </c>
+      <c r="D56" t="str">
+        <v>付款渠道</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>userSet.linkCPF</v>
+        <v>userSet.rechargeInstructions</v>
       </c>
       <c r="B57" t="str">
-        <v/>
+        <v>1x টার্নওভারের পরে রিডিমেবল বোনাস</v>
       </c>
       <c r="C57" t="str">
-        <v>Link CPF</v>
+        <v>Redeemable Bonus after 1x turnover</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1 倍营业额后可兑换奖金</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>userSet.rechargeitle</v>
+        <v>userSet.linkCPF</v>
       </c>
       <c r="B58" t="str">
-        <v/>
+        <v>CPF লিঙ্ক করুন</v>
       </c>
       <c r="C58" t="str">
-        <v>Dear user, the current payment channel needs you to complete your payment identity information. To ensure a smooth payment process, please fill in the following information.</v>
+        <v>Link CPF</v>
+      </c>
+      <c r="D58" t="str">
+        <v>链接公积金</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>userSet.enviar</v>
+        <v>userSet.rechargeitle</v>
       </c>
       <c r="B59" t="str">
-        <v/>
+        <v>প্রিয় ব্যবহারকারী, বর্তমান পেমেন্ট চ্যানেলে আপনাকে আপনার পেমেন্টের পরিচয় তথ্য সম্পূর্ণ করতে হবে। একটি মসৃণ পেমেন্ট প্রক্রিয়া নিশ্চিত করতে, অনুগ্রহ করে নিম্নলিখিত তথ্যটি পূরণ করুন।</v>
       </c>
       <c r="C59" t="str">
-        <v>Enviar</v>
+        <v>Dear user, the current payment channel needs you to complete your payment identity information. To ensure a smooth payment process, please fill in the following information.</v>
+      </c>
+      <c r="D59" t="str">
+        <v>亲爱的用户，当前支付渠道需要您填写支付身份信息。为确保支付过程顺利，请填写以下信息。</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>userSet.actParticipate</v>
+        <v>userSet.enviar</v>
       </c>
       <c r="B60" t="str">
-        <v/>
+        <v>পাঠাতে</v>
       </c>
       <c r="C60" t="str">
-        <v>Take part in promotions</v>
+        <v>Enviar</v>
+      </c>
+      <c r="D60" t="str">
+        <v>上传</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>userSet.recharge</v>
+        <v>userSet.actParticipate</v>
       </c>
       <c r="B61" t="str">
-        <v/>
+        <v>প্রচারে অংশ নিন</v>
       </c>
       <c r="C61" t="str">
-        <v>recharge</v>
+        <v>Take part in promotions</v>
+      </c>
+      <c r="D61" t="str">
+        <v>参加促销活动</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>userSet.moduleName</v>
+        <v>userSet.recharge</v>
       </c>
       <c r="B62" t="str">
-        <v/>
+        <v>রিচার্জ</v>
       </c>
       <c r="C62" t="str">
-        <v>All Promotions</v>
+        <v>recharge</v>
+      </c>
+      <c r="D62" t="str">
+        <v>补给</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>userSet.moduleName1</v>
+        <v>userSet.moduleName</v>
       </c>
       <c r="B63" t="str">
-        <v/>
+        <v>সমস্ত প্রচার</v>
       </c>
       <c r="C63" t="str">
-        <v>Registration</v>
+        <v>All Promotions</v>
+      </c>
+      <c r="D63" t="str">
+        <v>所有促销活动</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>userSet.moduleName2</v>
+        <v>userSet.moduleName1</v>
       </c>
       <c r="B64" t="str">
-        <v/>
+        <v>নিবন্ধন</v>
       </c>
       <c r="C64" t="str">
-        <v>Configuration</v>
+        <v>Registration</v>
+      </c>
+      <c r="D64" t="str">
+        <v>注册</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>userSet.moduleName3</v>
+        <v>userSet.moduleName2</v>
       </c>
       <c r="B65" t="str">
-        <v/>
+        <v>কনফিগারেশন</v>
       </c>
       <c r="C65" t="str">
-        <v>Contact the Service</v>
+        <v>Configuration</v>
+      </c>
+      <c r="D65" t="str">
+        <v>配置</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>withdrawals.withdrawalVal</v>
+        <v>userSet.moduleName3</v>
       </c>
       <c r="B66" t="str">
-        <v/>
+        <v>এখানে ক্লিক করুন</v>
       </c>
       <c r="C66" t="str">
-        <v>Withdrawal Amount</v>
+        <v>Contact the Service</v>
+      </c>
+      <c r="D66" t="str">
+        <v>联系服务</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>withdrawals.taxType</v>
+        <v>withdrawals.withdrawalVal</v>
       </c>
       <c r="B67" t="str">
-        <v/>
+        <v>প্রত্যাহারের পরিমাণ</v>
       </c>
       <c r="C67" t="str">
-        <v>Tax ID Type</v>
+        <v>Withdrawal Amount</v>
+      </c>
+      <c r="D67" t="str">
+        <v>提款金额</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>withdrawals.other</v>
+        <v>withdrawals.taxType</v>
       </c>
       <c r="B68" t="str">
-        <v/>
+        <v>ট্যাক্স আইডি টাইপ</v>
       </c>
       <c r="C68" t="str">
-        <v>Beneficiary Name</v>
+        <v>Tax ID Type</v>
+      </c>
+      <c r="D68" t="str">
+        <v>提款类型</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>withdrawals.cpf</v>
+        <v>withdrawals.other</v>
       </c>
       <c r="B69" t="str">
-        <v/>
+        <v>সুবিধাভোগীর নাম</v>
       </c>
       <c r="C69" t="str">
-        <v>CPF</v>
+        <v>Beneficiary Name</v>
+      </c>
+      <c r="D69" t="str">
+        <v>受益人姓名</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>withdrawals.cpfId</v>
+        <v>withdrawals.cpf</v>
       </c>
       <c r="B70" t="str">
-        <v/>
+        <v>সিপিএফ</v>
       </c>
       <c r="C70" t="str">
-        <v>CPF ID</v>
+        <v>CPF</v>
+      </c>
+      <c r="D70" t="str">
+        <v>CPF</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>withdrawals.emailID</v>
+        <v>withdrawals.cpfId</v>
       </c>
       <c r="B71" t="str">
-        <v/>
+        <v>CPF আইডি</v>
       </c>
       <c r="C71" t="str">
-        <v>Email ID</v>
+        <v>CPF ID</v>
+      </c>
+      <c r="D71" t="str">
+        <v>CPF ID</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>withdrawals.email</v>
+        <v>withdrawals.emailID</v>
       </c>
       <c r="B72" t="str">
-        <v/>
+        <v>ইমেইল আইডি</v>
       </c>
       <c r="C72" t="str">
-        <v>Email</v>
+        <v>Email ID</v>
+      </c>
+      <c r="D72" t="str">
+        <v>电子邮件 ID</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>withdrawals.phone</v>
+        <v>withdrawals.email</v>
       </c>
       <c r="B73" t="str">
-        <v/>
+        <v>ইমেইল</v>
       </c>
       <c r="C73" t="str">
-        <v>Phone</v>
+        <v>Email</v>
+      </c>
+      <c r="D73" t="str">
+        <v>电子邮件</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>withdrawals.phoneId</v>
+        <v>withdrawals.phone</v>
       </c>
       <c r="B74" t="str">
-        <v/>
+        <v>ফোন</v>
       </c>
       <c r="C74" t="str">
-        <v>Phone ID</v>
+        <v>Phone</v>
+      </c>
+      <c r="D74" t="str">
+        <v>电话</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>withdrawals.cnpj</v>
+        <v>withdrawals.phoneId</v>
       </c>
       <c r="B75" t="str">
-        <v/>
+        <v>ফোন আইডি</v>
       </c>
       <c r="C75" t="str">
-        <v>CNPJ</v>
+        <v>Phone ID</v>
+      </c>
+      <c r="D75" t="str">
+        <v>电话号码</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>withdrawals.cnpjId</v>
+        <v>withdrawals.cnpj</v>
       </c>
       <c r="B76" t="str">
-        <v/>
+        <v>সিএনপিজে</v>
       </c>
       <c r="C76" t="str">
-        <v>CNPJ ID</v>
+        <v>CNPJ</v>
+      </c>
+      <c r="D76" t="str">
+        <v>CNPJ</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>withdrawals.evpId</v>
+        <v>withdrawals.cnpjId</v>
       </c>
       <c r="B77" t="str">
-        <v/>
+        <v>সিএনপিজে আইডি</v>
       </c>
       <c r="C77" t="str">
-        <v>EVP ID</v>
+        <v>CNPJ ID</v>
+      </c>
+      <c r="D77" t="str">
+        <v>CNPJ ID</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>withdrawals.withdrawalInstructions</v>
+        <v>withdrawals.evpId</v>
       </c>
       <c r="B78" t="str">
-        <v/>
+        <v>ইভিপি আইডি</v>
       </c>
       <c r="C78" t="str">
-        <v>Providing accurate email and phone information helps speed up the bank's payment process.</v>
+        <v>EVP ID</v>
+      </c>
+      <c r="D78" t="str">
+        <v>EVP ID</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>inputError.contentExceedsQuantity</v>
+        <v>withdrawals.withdrawalInstructions</v>
       </c>
       <c r="B79" t="str">
-        <v/>
+        <v>সঠিক ইমেল এবং ফোনের তথ্য প্রদান করা ব্যাঙ্কের অর্থপ্রদান প্রক্রিয়াকে ত্বরান্বিত করতে সাহায্য করে।</v>
       </c>
       <c r="C79" t="str">
-        <v>Brand name cannot exceed 50 characters</v>
+        <v>Providing accurate email and phone information helps speed up the bank's payment process.</v>
+      </c>
+      <c r="D79" t="str">
+        <v>提供准确的电子邮件和电话信息有助于加快银行的付款流程。</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>inputError.emailExtract</v>
+        <v>inputError.contentExceedsQuantity</v>
       </c>
       <c r="B80" t="str">
-        <v/>
+        <v>ব্র্যান্ডের নাম 50 অক্ষরের বেশি হতে পারে না</v>
       </c>
       <c r="C80" t="str">
-        <v>Please enter an email address up to 36 characters</v>
+        <v>Brand name cannot exceed 50 characters</v>
+      </c>
+      <c r="D80" t="str">
+        <v>品牌名称不能超过 50 个字符</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>inputError.cpfVerificar</v>
+        <v>inputError.emailExtract</v>
       </c>
       <c r="B81" t="str">
-        <v/>
+        <v>36 অক্ষর পর্যন্ত একটি ইমেল ঠিকানা লিখুন</v>
       </c>
       <c r="C81" t="str">
-        <v>Please enter 11 digits for CPF</v>
+        <v>Please enter an email address up to 36 characters</v>
+      </c>
+      <c r="D81" t="str">
+        <v>请输入不超过 36 个字符的电子邮件地址</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>inputError.phoneVerificar</v>
+        <v>inputError.cpfVerificar</v>
       </c>
       <c r="B82" t="str">
-        <v/>
+        <v>CPF-এর জন্য অনুগ্রহ করে 11 সংখ্যা লিখুন</v>
       </c>
       <c r="C82" t="str">
-        <v>Please enter 11 digits without +55 for your phone number.</v>
+        <v>Please enter 11 digits for CPF</v>
+      </c>
+      <c r="D82" t="str">
+        <v>请输入 11 位公积金数字</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>inputError.cnpjVerificar</v>
+        <v>inputError.phoneVerificar</v>
       </c>
       <c r="B83" t="str">
-        <v/>
+        <v>আপনার ফোন নম্বরের জন্য +55 ছাড়া 11টি সংখ্যা লিখুন।</v>
       </c>
       <c r="C83" t="str">
-        <v>Please enter a pure 14-digit CNPJ</v>
+        <v>Please enter 11 digits without +55 for your phone number.</v>
+      </c>
+      <c r="D83" t="str">
+        <v>请输入不含 +55 的 11 位电话号码。</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>inputError.evpVerificar</v>
+        <v>inputError.cnpjVerificar</v>
       </c>
       <c r="B84" t="str">
-        <v/>
+        <v>অনুগ্রহ করে একটি বিশুদ্ধ 14-সংখ্যার CNPJ লিখুন</v>
       </c>
       <c r="C84" t="str">
-        <v>Please enter 36 digits and conform to the input format.</v>
+        <v>Please enter a pure 14-digit CNPJ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>请输入纯粹的 14 位 CNPJ</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>inputPlaceholder.pleaseEnterANickname</v>
+        <v>inputError.evpVerificar</v>
       </c>
       <c r="B85" t="str">
-        <v/>
+        <v>অনুগ্রহ করে 36টি সংখ্যা লিখুন এবং ইনপুট বিন্যাসের সাথে সামঞ্জস্য করুন।</v>
       </c>
       <c r="C85" t="str">
-        <v>Please enter a nickname</v>
+        <v>Please enter 36 digits and conform to the input format.</v>
+      </c>
+      <c r="D85" t="str">
+        <v>请输入 36 位数字并符合输入格式。</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>inputPlaceholder.passwordRule</v>
+        <v>inputPlaceholder.pleaseEnterANickname</v>
       </c>
       <c r="B86" t="str">
-        <v/>
+        <v>একটি ডাকনাম লিখুন</v>
       </c>
       <c r="C86" t="str">
-        <v>Set a password of 8 to 20 characters</v>
+        <v>Please enter a nickname</v>
+      </c>
+      <c r="D86" t="str">
+        <v>请输入昵称</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>inputPlaceholder.passwordSync</v>
+        <v>inputPlaceholder.passwordRule</v>
       </c>
       <c r="B87" t="str">
-        <v/>
+        <v>8 থেকে 20 অক্ষরের একটি পাসওয়ার্ড সেট করুন</v>
       </c>
       <c r="C87" t="str">
-        <v>Passwords do not match</v>
+        <v>Set a password of 8 to 20 characters</v>
+      </c>
+      <c r="D87" t="str">
+        <v>设置 8 至 20 个字符的密码</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>inputPlaceholder.rechargePlaceholder</v>
+        <v>inputPlaceholder.passwordSync</v>
       </c>
       <c r="B88" t="str">
-        <v/>
+        <v>পাসওয়ার্ড মেলে না</v>
       </c>
       <c r="C88" t="str">
-        <v>Amount (10 ~ 50000)</v>
+        <v>Passwords do not match</v>
+      </c>
+      <c r="D88" t="str">
+        <v>密码不匹配</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>inputPlaceholder.otherInput</v>
+        <v>inputPlaceholder.rechargePlaceholder</v>
       </c>
       <c r="B89" t="str">
-        <v/>
+        <v>পরিমাণ (10 ~ 50000)</v>
       </c>
       <c r="C89" t="str">
-        <v>Please provide the beneficiary's name...</v>
+        <v>Amount (10 ~ 50000)</v>
+      </c>
+      <c r="D89" t="str">
+        <v>金额（10 ~ 50000）</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>inputPlaceholder.cpfIdInput</v>
+        <v>inputPlaceholder.otherInput</v>
       </c>
       <c r="B90" t="str">
-        <v/>
+        <v>অনুগ্রহ করে সুবিধাভোগীর নাম দিন...</v>
       </c>
       <c r="C90" t="str">
-        <v>Please enter the CPF ID...</v>
+        <v>Please provide the beneficiary's name...</v>
+      </c>
+      <c r="D90" t="str">
+        <v>请提供受益人姓名...</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>inputPlaceholder.emailInput</v>
+        <v>inputPlaceholder.cpfIdInput</v>
       </c>
       <c r="B91" t="str">
-        <v/>
+        <v>অনুগ্রহ করে CPF আইডি লিখুন...</v>
       </c>
       <c r="C91" t="str">
-        <v>Please enter the email ID...</v>
+        <v>Please enter the CPF ID...</v>
+      </c>
+      <c r="D91" t="str">
+        <v>请输入公积金编号...</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>inputPlaceholder.phoneInput</v>
+        <v>inputPlaceholder.emailInput</v>
       </c>
       <c r="B92" t="str">
-        <v/>
+        <v>অনুগ্রহ করে ইমেল আইডি লিখুন...</v>
       </c>
       <c r="C92" t="str">
-        <v>Please enter the phone ID...</v>
+        <v>Please enter the email ID...</v>
+      </c>
+      <c r="D92" t="str">
+        <v>请输入电子邮件 ID...</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>inputPlaceholder.cnpjInput</v>
+        <v>inputPlaceholder.phoneInput</v>
       </c>
       <c r="B93" t="str">
-        <v/>
+        <v>অনুগ্রহ করে ফোন আইডি লিখুন...</v>
       </c>
       <c r="C93" t="str">
-        <v>Please enter the CNPJ ID...</v>
+        <v>Please enter the phone ID...</v>
+      </c>
+      <c r="D93" t="str">
+        <v>请输入电话号码...</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>inputPlaceholder.enterOldPassWord</v>
+        <v>inputPlaceholder.cnpjInput</v>
       </c>
       <c r="B94" t="str">
-        <v/>
+        <v>দয়া করে CNPJ আইডি লিখুন...</v>
       </c>
       <c r="C94" t="str">
-        <v>Enter the old password</v>
+        <v>Please enter the CNPJ ID...</v>
+      </c>
+      <c r="D94" t="str">
+        <v>请输入 CNPJ ID...</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>inputPlaceholder.enternewPassWord</v>
+        <v>inputPlaceholder.enterOldPassWord</v>
       </c>
       <c r="B95" t="str">
-        <v/>
+        <v>পুরানো পাসওয়ার্ড লিখুন</v>
       </c>
       <c r="C95" t="str">
-        <v>Enter the new password</v>
+        <v>Enter the old password</v>
+      </c>
+      <c r="D95" t="str">
+        <v>输入旧密码</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>inputPlaceholder.enterNewAgainPassWord</v>
+        <v>inputPlaceholder.enternewPassWord</v>
       </c>
       <c r="B96" t="str">
-        <v/>
+        <v>নতুন পাসওয়ার্ড দিন</v>
       </c>
       <c r="C96" t="str">
-        <v>Confirm the new password</v>
+        <v>Enter the new password</v>
+      </c>
+      <c r="D96" t="str">
+        <v>输入新密码</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>inputPlaceholder.loginAccount</v>
+        <v>inputPlaceholder.enterNewAgainPassWord</v>
       </c>
       <c r="B97" t="str">
-        <v/>
+        <v>নতুন পাসওয়ার্ড নিশ্চিত করুন</v>
       </c>
       <c r="C97" t="str">
-        <v>Account / Phone Number</v>
+        <v>Confirm the new password</v>
+      </c>
+      <c r="D97" t="str">
+        <v>确认新密码</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>inputPlaceholder.loginPassword</v>
+        <v>inputPlaceholder.loginAccount</v>
       </c>
       <c r="B98" t="str">
-        <v/>
+        <v>অ্যাকাউন্ট / ফোন নম্বর</v>
       </c>
       <c r="C98" t="str">
-        <v>please enter password</v>
+        <v>Account / Phone Number</v>
+      </c>
+      <c r="D98" t="str">
+        <v>账号/电话号码</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>inputPlaceholder.registroAccount</v>
+        <v>inputPlaceholder.loginPassword</v>
       </c>
       <c r="B99" t="str">
-        <v/>
+        <v>পাসওয়ার্ড লিখুন</v>
       </c>
       <c r="C99" t="str">
-        <v>Phone number</v>
+        <v>please enter password</v>
+      </c>
+      <c r="D99" t="str">
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>inputPlaceholder.registroConfirmPassword</v>
+        <v>inputPlaceholder.registroAccount</v>
       </c>
       <c r="B100" t="str">
-        <v/>
+        <v>ফোন নম্বর</v>
       </c>
       <c r="C100" t="str">
-        <v>please enter password</v>
+        <v>Phone number</v>
+      </c>
+      <c r="D100" t="str">
+        <v>电话号码</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>inputPlaceholder.rechargeCPF</v>
+        <v>inputPlaceholder.registroConfirmPassword</v>
       </c>
       <c r="B101" t="str">
-        <v/>
+        <v>পাসওয়ার্ড লিখুন</v>
       </c>
       <c r="C101" t="str">
-        <v>Please enter CPF ID for payment</v>
+        <v>please enter password</v>
+      </c>
+      <c r="D101" t="str">
+        <v>请输入密码</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>inputPlaceholder.rechargeName</v>
+        <v>inputPlaceholder.rechargeCPF</v>
       </c>
       <c r="B102" t="str">
-        <v/>
+        <v>অর্থপ্রদানের জন্য অনুগ্রহ করে CPF ID লিখুন</v>
       </c>
       <c r="C102" t="str">
-        <v>Please enter your name</v>
+        <v>Please enter CPF ID for payment</v>
+      </c>
+      <c r="D102" t="str">
+        <v>请输入 CPF ID 以进行付款</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>inputPlaceholder.evpInput</v>
+        <v>inputPlaceholder.rechargeName</v>
       </c>
       <c r="B103" t="str">
-        <v/>
+        <v>আপনার নাম লিখুন</v>
       </c>
       <c r="C103" t="str">
-        <v>xxxxxxxx-xxxx-xxxx-xxxx-xxxxxxxxxxxx</v>
+        <v>Please enter your name</v>
+      </c>
+      <c r="D103" t="str">
+        <v>请输入您的姓名</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>gameLog.hour</v>
+        <v>inputPlaceholder.evpInput</v>
       </c>
       <c r="B104" t="str">
-        <v/>
+        <v>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</v>
       </c>
       <c r="C104" t="str">
-        <v>Hours</v>
+        <v>xxxxxxxx-xxxx-xxxx-xxxx-xxxxxxxxxxxx</v>
+      </c>
+      <c r="D104" t="str">
+        <v>占位符</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>gameLog.days</v>
+        <v>gameLog.hour</v>
       </c>
       <c r="B105" t="str">
-        <v/>
+        <v>ঘন্টা</v>
       </c>
       <c r="C105" t="str">
-        <v>Days</v>
+        <v>Hours</v>
+      </c>
+      <c r="D105" t="str">
+        <v>小时数</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>gameLog.lastData</v>
+        <v>gameLog.days</v>
       </c>
       <c r="B106" t="str">
-        <v/>
+        <v>দিন</v>
       </c>
       <c r="C106" t="str">
-        <v>Data from the last</v>
+        <v>Days</v>
+      </c>
+      <c r="D106" t="str">
+        <v>天数</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>gameLog.setTimes</v>
+        <v>gameLog.lastData</v>
       </c>
       <c r="B107" t="str">
-        <v/>
+        <v>শেষ থেকে ডেটা</v>
       </c>
       <c r="C107" t="str">
-        <v>Bet 0 times</v>
+        <v>Data from the last</v>
+      </c>
+      <c r="D107" t="str">
+        <v>最近一次</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>gameLog.winOrLose</v>
+        <v>gameLog.setTimes</v>
       </c>
       <c r="B108" t="str">
-        <v/>
+        <v>বাজি 0 বার</v>
       </c>
       <c r="C108" t="str">
-        <v>Win or Lose</v>
+        <v>Bet 0 times</v>
+      </c>
+      <c r="D108" t="str">
+        <v>投注 0 次</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>gameLog.noRecordYet</v>
+        <v>gameLog.winOrLose</v>
       </c>
       <c r="B109" t="str">
-        <v/>
+        <v>জয় বা হার</v>
       </c>
       <c r="C109" t="str">
-        <v>No records yet</v>
+        <v>Win or Lose</v>
+      </c>
+      <c r="D109" t="str">
+        <v>输赢</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>gameLog.slogan</v>
+        <v>gameLog.noRecordYet</v>
       </c>
       <c r="B110" t="str">
-        <v/>
+        <v>এখনও কোন রেকর্ড নেই</v>
       </c>
       <c r="C110" t="str">
-        <v>Please contact the agent to recharge coins and start the game</v>
+        <v>No records yet</v>
+      </c>
+      <c r="D110" t="str">
+        <v>尚无记录</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>paymentPage.paymentChannel</v>
+        <v>gameLog.slogan</v>
       </c>
       <c r="B111" t="str">
-        <v/>
+        <v>কয়েন রিচার্জ করতে এবং গেম শুরু করতে অনুগ্রহ করে এজেন্টের সাথে যোগাযোগ করুন</v>
       </c>
       <c r="C111" t="str">
-        <v>Payment Channel</v>
+        <v>Please contact the agent to recharge coins and start the game</v>
+      </c>
+      <c r="D111" t="str">
+        <v>请联系代理充值金币并开始游戏</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>paymentPage.myBalance</v>
+        <v>paymentPage.paymentChannel</v>
       </c>
       <c r="B112" t="str">
-        <v/>
+        <v>পেমেন্ট চ্যানেল</v>
       </c>
       <c r="C112" t="str">
-        <v>My Balance</v>
+        <v>Payment Channel</v>
+      </c>
+      <c r="D112" t="str">
+        <v>付款渠道</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>paymentPage.withdrawalAmount</v>
+        <v>paymentPage.myBalance</v>
       </c>
       <c r="B113" t="str">
-        <v/>
+        <v>আমার ব্যালেন্স</v>
       </c>
       <c r="C113" t="str">
-        <v>Withdrawal Amount</v>
+        <v>My Balance</v>
+      </c>
+      <c r="D113" t="str">
+        <v>我的余额</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>systemNotify.all</v>
+        <v>paymentPage.withdrawalAmount</v>
       </c>
       <c r="B114" t="str">
-        <v/>
+        <v>প্রত্যাহারের পরিমাণ</v>
       </c>
       <c r="C114" t="str">
-        <v>All</v>
+        <v>Withdrawal Amount</v>
+      </c>
+      <c r="D114" t="str">
+        <v>提款金额</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>systemNotify.system</v>
+        <v>systemNotify.all</v>
       </c>
       <c r="B115" t="str">
-        <v/>
+        <v>সব</v>
       </c>
       <c r="C115" t="str">
-        <v>System</v>
+        <v>All</v>
+      </c>
+      <c r="D115" t="str">
+        <v>全部</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>systemNotify.deposit</v>
+        <v>systemNotify.system</v>
       </c>
       <c r="B116" t="str">
-        <v/>
+        <v>সিস্টেম</v>
       </c>
       <c r="C116" t="str">
-        <v>Deposit</v>
+        <v>System</v>
+      </c>
+      <c r="D116" t="str">
+        <v>系统</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>systemNotify.withdrawal</v>
+        <v>systemNotify.deposit</v>
       </c>
       <c r="B117" t="str">
-        <v/>
+        <v>জমা</v>
       </c>
       <c r="C117" t="str">
-        <v>Withdrawal</v>
+        <v>Deposit</v>
+      </c>
+      <c r="D117" t="str">
+        <v>存款</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>systemNotify.bonus</v>
+        <v>systemNotify.withdrawal</v>
       </c>
       <c r="B118" t="str">
-        <v/>
+        <v>প্রত্যাহার</v>
       </c>
       <c r="C118" t="str">
-        <v>Bonus</v>
+        <v>Withdrawal</v>
+      </c>
+      <c r="D118" t="str">
+        <v>退出</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>systemNotify.noMore</v>
+        <v>systemNotify.bonus</v>
       </c>
       <c r="B119" t="str">
-        <v/>
+        <v>বোনাস</v>
       </c>
       <c r="C119" t="str">
-        <v>No More</v>
+        <v>Bonus</v>
+      </c>
+      <c r="D119" t="str">
+        <v>奖金</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>systemNotify.systemNews</v>
+        <v>systemNotify.noMore</v>
       </c>
       <c r="B120" t="str">
-        <v/>
+        <v>আর নেই</v>
       </c>
       <c r="C120" t="str">
-        <v>News</v>
+        <v>No More</v>
+      </c>
+      <c r="D120" t="str">
+        <v>无更多</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>toastText.actOver</v>
+        <v>systemNotify.systemNews</v>
       </c>
       <c r="B121" t="str">
-        <v/>
+        <v>খবর</v>
       </c>
       <c r="C121" t="str">
-        <v>The event is over</v>
+        <v>News</v>
+      </c>
+      <c r="D121" t="str">
+        <v>新闻</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>toastText.alreadyCollected</v>
+        <v>toastText.actOver</v>
       </c>
       <c r="B122" t="str">
-        <v/>
+        <v>অনুষ্ঠান শেষ</v>
       </c>
       <c r="C122" t="str">
-        <v>already collected</v>
+        <v>The event is over</v>
+      </c>
+      <c r="D122" t="str">
+        <v>活动结束</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>activity.redRain.redRainActTitle</v>
+        <v>toastText.alreadyCollected</v>
       </c>
       <c r="B123" t="str">
-        <v/>
+        <v>ইতিমধ্যে সংগৃহীত</v>
       </c>
       <c r="C123" t="str">
-        <v>R$ 5,000,000 at a time Max remains</v>
+        <v>already collected</v>
+      </c>
+      <c r="D123" t="str">
+        <v>已收集</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>activity.redRain.sixTimes</v>
+        <v>activity.redRain.redRainActTitle</v>
       </c>
       <c r="B124" t="str">
-        <v/>
+        <v>৳ 5,000,000 এক সময়ে সর্বোচ্চ অবশিষ্ট থাকে</v>
       </c>
       <c r="C124" t="str">
-        <v>6X a day</v>
+        <v>R$ 5,000,000 at a time Max remains</v>
+      </c>
+      <c r="D124" t="str">
+        <v>每次 5 000 000 雷亚尔，最大余额</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>activity.redRain.moneyRain</v>
+        <v>activity.redRain.sixTimes</v>
       </c>
       <c r="B125" t="str">
-        <v/>
+        <v>দিনে 6 বার</v>
       </c>
       <c r="C125" t="str">
-        <v>Rain of money</v>
+        <v>6X a day</v>
+      </c>
+      <c r="D125" t="str">
+        <v>每天 6 次</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>activity.redRain.slogans1</v>
+        <v>activity.redRain.moneyRain</v>
       </c>
       <c r="B126" t="str">
-        <v/>
+        <v>টাকার বৃষ্টি</v>
       </c>
       <c r="C126" t="str">
-        <v>Recharged members can claim for free.</v>
+        <v>Rain of money</v>
+      </c>
+      <c r="D126" t="str">
+        <v>红包雨</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>activity.redRain.slogans2</v>
+        <v>activity.redRain.slogans1</v>
       </c>
       <c r="B127" t="str">
-        <v/>
+        <v>রিচার্জ করা সদস্যরা বিনামূল্যে দাবি করতে পারেন।</v>
       </c>
       <c r="C127" t="str">
-        <v>Maximum cash drop: R$7,777</v>
+        <v>Recharged members can claim for free.</v>
+      </c>
+      <c r="D127" t="str">
+        <v>充值会员可免费申请。</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>activity.redRain.grab</v>
+        <v>activity.redRain.slogans2</v>
       </c>
       <c r="B128" t="str">
-        <v/>
+        <v>সর্বাধিক নগদ ড্রপ: ৳ 7,777</v>
       </c>
       <c r="C128" t="str">
-        <v>GRAB</v>
+        <v>Maximum cash drop: BTD 7,777</v>
+      </c>
+      <c r="D128" t="str">
+        <v>最大奖金： R$7,777</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>activity.redRain.afterDepositing</v>
+        <v>activity.redRain.grab</v>
       </c>
       <c r="B129" t="str">
-        <v/>
+        <v>গ্র্যাব</v>
       </c>
       <c r="C129" t="str">
-        <v>Please collect it after depositing</v>
+        <v>GRAB</v>
+      </c>
+      <c r="D129" t="str">
+        <v>获取</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>activity.redRain.collectionTime</v>
+        <v>activity.redRain.afterDepositing</v>
       </c>
       <c r="B130" t="str">
-        <v/>
+        <v>জমা করার পরে এটি সংগ্রহ করুন</v>
       </c>
       <c r="C130" t="str">
-        <v>Collection times:</v>
+        <v>Please collect it after depositing</v>
+      </c>
+      <c r="D130" t="str">
+        <v>请在存款后领取</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>activity.redRain.accept</v>
+        <v>activity.redRain.collectionTime</v>
       </c>
       <c r="B131" t="str">
-        <v/>
+        <v>সংগ্রহের সময়:</v>
       </c>
       <c r="C131" t="str">
-        <v>Accept</v>
+        <v>Collection times:</v>
+      </c>
+      <c r="D131" t="str">
+        <v>领取时间</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>activity.relief.currentLosses</v>
+        <v>activity.redRain.accept</v>
       </c>
       <c r="B132" t="str">
-        <v/>
+        <v>গ্রহণ করুন</v>
       </c>
       <c r="C132" t="str">
-        <v>Current Losses</v>
+        <v>Accept</v>
+      </c>
+      <c r="D132" t="str">
+        <v>接收，同意</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>activity.relief.currentLossesTilte</v>
+        <v>activity.relief.currentLosses</v>
       </c>
       <c r="B133" t="str">
-        <v/>
+        <v>বর্তমান লোকসান</v>
       </c>
       <c r="C133" t="str">
-        <v>Expected Relief Funds</v>
+        <v>Current Losses</v>
+      </c>
+      <c r="D133" t="str">
+        <v>当前损失</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>activity.relief.pastLoss</v>
+        <v>activity.relief.currentLossesTilte</v>
       </c>
       <c r="B134" t="str">
-        <v/>
+        <v>প্রত্যাশিত ত্রাণ তহবিল</v>
       </c>
       <c r="C134" t="str">
-        <v>Past Loss</v>
+        <v>Expected Relief Funds</v>
+      </c>
+      <c r="D134" t="str">
+        <v>预期救济资金</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>activity.relief.pastLossTitle</v>
+        <v>activity.relief.pastLoss</v>
       </c>
       <c r="B135" t="str">
-        <v/>
+        <v>অতীতের ক্ষতি</v>
       </c>
       <c r="C135" t="str">
-        <v>Available Relief Funds</v>
+        <v>Past Loss</v>
+      </c>
+      <c r="D135" t="str">
+        <v>过去的损失</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>activity.relief.toReceive</v>
+        <v>activity.relief.pastLossTitle</v>
       </c>
       <c r="B136" t="str">
-        <v/>
+        <v>উপলব্ধ ত্রাণ তহবিল</v>
       </c>
       <c r="C136" t="str">
-        <v>Receive</v>
+        <v>Available Relief Funds</v>
+      </c>
+      <c r="D136" t="str">
+        <v>可用救灾资金</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>activity.relief.reliefListName</v>
+        <v>activity.relief.toReceive</v>
       </c>
       <c r="B137" t="str">
-        <v/>
+        <v>গ্রহণ করুন</v>
       </c>
       <c r="C137" t="str">
-        <v>Relief Fund Table</v>
+        <v>Receive</v>
+      </c>
+      <c r="D137" t="str">
+        <v>接收</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>activity.relief.level</v>
+        <v>activity.relief.reliefListName</v>
       </c>
       <c r="B138" t="str">
-        <v/>
+        <v>ত্রাণ তহবিলের টেবিল</v>
       </c>
       <c r="C138" t="str">
-        <v>Level</v>
+        <v>Relief Fund Table</v>
+      </c>
+      <c r="D138" t="str">
+        <v>救济基金表</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>activity.relief.lossValue</v>
+        <v>activity.relief.level</v>
       </c>
       <c r="B139" t="str">
-        <v/>
+        <v>স্তর</v>
       </c>
       <c r="C139" t="str">
-        <v>Game Loss</v>
+        <v>Level</v>
+      </c>
+      <c r="D139" t="str">
+        <v>级别</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>activity.relief.compensate</v>
+        <v>activity.relief.lossValue</v>
       </c>
       <c r="B140" t="str">
-        <v/>
+        <v>খেলা হার</v>
       </c>
       <c r="C140" t="str">
-        <v>Relief Rate</v>
+        <v>Game Loss</v>
+      </c>
+      <c r="D140" t="str">
+        <v>游戏失败</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>activity.eventDescription</v>
+        <v>activity.relief.compensate</v>
       </c>
       <c r="B141" t="str">
-        <v/>
+        <v>ত্রাণ হার</v>
       </c>
       <c r="C141" t="str">
-        <v>Event Description</v>
+        <v>Relief Rate</v>
+      </c>
+      <c r="D141" t="str">
+        <v>救济率</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>activity.actVIP.accumulationVal</v>
+        <v>activity.eventDescription</v>
       </c>
       <c r="B142" t="str">
-        <v/>
+        <v>ইভেন্ট বিবরণ</v>
       </c>
       <c r="C142" t="str">
-        <v>Accumulated Bets</v>
+        <v>Event Description</v>
+      </c>
+      <c r="D142" t="str">
+        <v>活动说明</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>activity.actVIP.canReceive</v>
+        <v>activity.actVIP.accumulationVal</v>
       </c>
       <c r="B143" t="str">
-        <v/>
+        <v>সঞ্চিত বাজি</v>
       </c>
       <c r="C143" t="str">
-        <v>Can Receive Bonus</v>
+        <v>Accumulated Bets</v>
+      </c>
+      <c r="D143" t="str">
+        <v>累计投注</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>activity.actVIP.recordList</v>
+        <v>activity.actVIP.canReceive</v>
       </c>
       <c r="B144" t="str">
-        <v/>
+        <v>বোনাস পেতে পারেন</v>
       </c>
       <c r="C144" t="str">
-        <v>Bonus Distribution Record</v>
+        <v>Can Receive Bonus</v>
+      </c>
+      <c r="D144" t="str">
+        <v>可领取奖金</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>activity.actVIP.receber</v>
+        <v>activity.actVIP.recordList</v>
       </c>
       <c r="B145" t="str">
-        <v/>
+        <v>বোনাস বিতরণ রেকর্ড</v>
       </c>
       <c r="C145" t="str">
-        <v>Receive</v>
+        <v>Bonus Distribution Record</v>
+      </c>
+      <c r="D145" t="str">
+        <v>奖金分配记录</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>activity.actVIP.vipLevel</v>
+        <v>activity.actVIP.receber</v>
       </c>
       <c r="B146" t="str">
-        <v/>
+        <v>গ্রহণ করুন</v>
       </c>
       <c r="C146" t="str">
-        <v>VIP Level</v>
+        <v>Receive</v>
+      </c>
+      <c r="D146" t="str">
+        <v>接收</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>activity.actVIP.accumulatorBets</v>
+        <v>activity.actVIP.vipLevel</v>
       </c>
       <c r="B147" t="str">
-        <v/>
+        <v>ভিআইপি লেভেল</v>
       </c>
       <c r="C147" t="str">
-        <v>Accumulated Bets</v>
+        <v>VIP Level</v>
+      </c>
+      <c r="D147" t="str">
+        <v>VIP等级</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>activity.actVIP.upgradePrize</v>
+        <v>activity.actVIP.accumulatorBets</v>
       </c>
       <c r="B148" t="str">
-        <v/>
+        <v>সঞ্চিত বাজি</v>
       </c>
       <c r="C148" t="str">
-        <v>Upgrade Prize</v>
+        <v>Accumulated Bets</v>
+      </c>
+      <c r="D148" t="str">
+        <v>累计投注</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>activity.actVIP.weeklyBonus</v>
+        <v>activity.actVIP.upgradePrize</v>
       </c>
       <c r="B149" t="str">
-        <v/>
+        <v>আপগ্রেড পুরস্কার</v>
       </c>
       <c r="C149" t="str">
-        <v>Weekly Bonus</v>
+        <v>Upgrade Prize</v>
+      </c>
+      <c r="D149" t="str">
+        <v>升级奖励</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>activity.actVIP.monthlyBonus</v>
+        <v>activity.actVIP.weeklyBonus</v>
       </c>
       <c r="B150" t="str">
-        <v/>
+        <v>সাপ্তাহিক বোনাস</v>
       </c>
       <c r="C150" t="str">
-        <v>Monthly Bonus</v>
+        <v>Weekly Bonus</v>
+      </c>
+      <c r="D150" t="str">
+        <v>每周奖金</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>activity.actVIP.collectionTime</v>
+        <v>activity.actVIP.monthlyBonus</v>
       </c>
       <c r="B151" t="str">
-        <v/>
+        <v>মাসিক বোনাস</v>
       </c>
       <c r="C151" t="str">
-        <v>Collection Time</v>
+        <v>Monthly Bonus</v>
+      </c>
+      <c r="D151" t="str">
+        <v>每月奖金</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>activity.actVIP.event</v>
+        <v>activity.actVIP.collectionTime</v>
       </c>
       <c r="B152" t="str">
-        <v/>
+        <v>সংগ্রহের সময়</v>
       </c>
       <c r="C152" t="str">
-        <v>Event</v>
+        <v>Collection Time</v>
+      </c>
+      <c r="D152" t="str">
+        <v>收集时间</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>activity.actVIP.money</v>
+        <v>activity.actVIP.event</v>
       </c>
       <c r="B153" t="str">
-        <v/>
+        <v>ঘটনা</v>
       </c>
       <c r="C153" t="str">
-        <v>Money</v>
+        <v>Event</v>
+      </c>
+      <c r="D153" t="str">
+        <v>活动</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>activity.actVIP.registrationTitle</v>
+        <v>activity.actVIP.money</v>
       </c>
       <c r="B154" t="str">
-        <v/>
+        <v>টাকা</v>
       </c>
       <c r="C154" t="str">
-        <v>Collection Record</v>
+        <v>Money</v>
+      </c>
+      <c r="D154" t="str">
+        <v>钱</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>activity.actVIP.upgradeRewards</v>
+        <v>activity.actVIP.registrationTitle</v>
       </c>
       <c r="B155" t="str">
-        <v/>
+        <v>সংগ্রহ রেকর্ড</v>
       </c>
       <c r="C155" t="str">
-        <v>Upgrade rewards</v>
+        <v>Collection Record</v>
+      </c>
+      <c r="D155" t="str">
+        <v>收藏记录</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>activity.actVIP.weeklyRewards</v>
+        <v>activity.actVIP.upgradeRewards</v>
       </c>
       <c r="B156" t="str">
-        <v/>
+        <v>পুরষ্কার আপগ্রেড করুন</v>
       </c>
       <c r="C156" t="str">
-        <v>Weekly rewards</v>
+        <v>Upgrade rewards</v>
+      </c>
+      <c r="D156" t="str">
+        <v>升级奖励</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>activity.actVIP.monthlyRewards</v>
+        <v>activity.actVIP.weeklyRewards</v>
       </c>
       <c r="B157" t="str">
-        <v/>
+        <v>সাপ্তাহিক পুরস্কার</v>
       </c>
       <c r="C157" t="str">
-        <v>Monthly rewards</v>
+        <v>Weekly rewards</v>
+      </c>
+      <c r="D157" t="str">
+        <v>每周奖励</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>activity.treasureChest.myLinks</v>
+        <v>activity.actVIP.monthlyRewards</v>
       </c>
       <c r="B158" t="str">
-        <v/>
+        <v>মাসিক পুরস্কার</v>
       </c>
       <c r="C158" t="str">
-        <v>My Link</v>
+        <v>Monthly rewards</v>
+      </c>
+      <c r="D158" t="str">
+        <v>每月奖励</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>activity.treasureChest.quickShare</v>
+        <v>activity.treasureChest.myLinks</v>
       </c>
       <c r="B159" t="str">
-        <v/>
+        <v>আমার লিঙ্ক</v>
       </c>
       <c r="C159" t="str">
-        <v>Quick Share</v>
+        <v>My Link</v>
+      </c>
+      <c r="D159" t="str">
+        <v>我的链接</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>activity.treasureChest.mySubordinates</v>
+        <v>activity.treasureChest.quickShare</v>
       </c>
       <c r="B160" t="str">
-        <v/>
+        <v>দ্রুত শেয়ার করুন</v>
       </c>
       <c r="C160" t="str">
-        <v>My Direct Subordinates</v>
+        <v>Quick Share</v>
+      </c>
+      <c r="D160" t="str">
+        <v>快速分享</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>activity.treasureChest.people</v>
+        <v>activity.treasureChest.mySubordinates</v>
       </c>
       <c r="B161" t="str">
-        <v/>
+        <v>আমার সরাসরি অধস্তন</v>
       </c>
       <c r="C161" t="str">
-        <v>People</v>
+        <v>My Direct Subordinates</v>
+      </c>
+      <c r="D161" t="str">
+        <v>我的直接下属</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>activity.treasureChest.copy</v>
+        <v>activity.treasureChest.people</v>
       </c>
       <c r="B162" t="str">
-        <v/>
+        <v>মানুষ</v>
       </c>
       <c r="C162" t="str">
-        <v>Copy</v>
+        <v>People</v>
+      </c>
+      <c r="D162" t="str">
+        <v>人</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>activity.subordinateList.previousPost</v>
+        <v>activity.treasureChest.copy</v>
       </c>
       <c r="B163" t="str">
-        <v/>
+        <v>কপি</v>
       </c>
       <c r="C163" t="str">
-        <v>User's Effective Conditions</v>
+        <v>Copy</v>
+      </c>
+      <c r="D163" t="str">
+        <v>复制</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>activity.subordinateList.accumulatedDeposits</v>
+        <v>activity.subordinateList.previousPost</v>
       </c>
       <c r="B164" t="str">
-        <v/>
+        <v>ব্যবহারকারীর কার্যকরী শর্তাবলী</v>
       </c>
       <c r="C164" t="str">
-        <v>Accumulated Deposits</v>
+        <v>User's Effective Conditions</v>
+      </c>
+      <c r="D164" t="str">
+        <v>用户有效条件</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>activity.subordinateList.bettingOnTheGame</v>
+        <v>activity.subordinateList.accumulatedDeposits</v>
       </c>
       <c r="B165" t="str">
-        <v/>
+        <v>সঞ্চিত আমানত</v>
       </c>
       <c r="C165" t="str">
-        <v>Bets on Game</v>
+        <v>Accumulated Deposits</v>
+      </c>
+      <c r="D165" t="str">
+        <v>累计存款</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>activity.subordinateList.subordinate</v>
+        <v>activity.subordinateList.bettingOnTheGame</v>
       </c>
       <c r="B166" t="str">
-        <v/>
+        <v>খেলার উপর বাজি</v>
       </c>
       <c r="C166" t="str">
-        <v>Subordinate</v>
+        <v>Bets on Game</v>
+      </c>
+      <c r="D166" t="str">
+        <v>游戏投注</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>activity.subordinateList.effective</v>
+        <v>activity.subordinateList.subordinate</v>
       </c>
       <c r="B167" t="str">
-        <v/>
+        <v>অধীনস্থ</v>
       </c>
       <c r="C167" t="str">
-        <v>Effective</v>
+        <v>Subordinate</v>
+      </c>
+      <c r="D167" t="str">
+        <v>下级</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>activity.subordinateList.name</v>
+        <v>activity.subordinateList.effective</v>
       </c>
       <c r="B168" t="str">
-        <v/>
+        <v>কার্যকরী</v>
       </c>
       <c r="C168" t="str">
-        <v>Name</v>
+        <v>Effective</v>
+      </c>
+      <c r="D168" t="str">
+        <v>有效</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>activity.subordinateList.deposit</v>
+        <v>activity.subordinateList.name</v>
       </c>
       <c r="B169" t="str">
-        <v/>
+        <v>নাম</v>
       </c>
       <c r="C169" t="str">
-        <v>Deposit</v>
+        <v>Name</v>
+      </c>
+      <c r="D169" t="str">
+        <v>名称</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>activity.subordinateList.bets</v>
+        <v>activity.subordinateList.deposit</v>
       </c>
       <c r="B170" t="str">
-        <v/>
+        <v>জমা</v>
       </c>
       <c r="C170" t="str">
-        <v>Bets</v>
+        <v>Deposit</v>
+      </c>
+      <c r="D170" t="str">
+        <v>存款</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>activity.signIn.day</v>
+        <v>activity.subordinateList.bets</v>
       </c>
       <c r="B171" t="str">
-        <v/>
+        <v>বাজি</v>
       </c>
       <c r="C171" t="str">
-        <v>Day</v>
+        <v>Bets</v>
+      </c>
+      <c r="D171" t="str">
+        <v>赌注</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>activity.signIn.regisTime</v>
+        <v>activity.signIn.day</v>
       </c>
       <c r="B172" t="str">
-        <v/>
+        <v>দিন</v>
       </c>
       <c r="C172" t="str">
-        <v>Registration Time</v>
+        <v>Day</v>
+      </c>
+      <c r="D172" t="str">
+        <v>日期</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>activity.signIn.totalDeposits</v>
+        <v>activity.signIn.regisTime</v>
       </c>
       <c r="B173" t="str">
-        <v/>
+        <v>রেজিস্ট্রেশনের সময়</v>
       </c>
       <c r="C173" t="str">
-        <v>Total Deposits</v>
+        <v>Registration Time</v>
+      </c>
+      <c r="D173" t="str">
+        <v>注册时间</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>activity.signIn.days</v>
+        <v>activity.signIn.totalDeposits</v>
       </c>
       <c r="B174" t="str">
-        <v/>
+        <v>মোট আমানত</v>
       </c>
       <c r="C174" t="str">
-        <v>Days</v>
+        <v>Total Deposits</v>
+      </c>
+      <c r="D174" t="str">
+        <v>存款总额</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>activity.signIn.collectionTime</v>
+        <v>activity.signIn.days</v>
       </c>
       <c r="B175" t="str">
-        <v/>
+        <v>দিন</v>
       </c>
       <c r="C175" t="str">
-        <v>Time When Bonuses Can Be Claimed</v>
+        <v>Days</v>
+      </c>
+      <c r="D175" t="str">
+        <v>天数</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>activity.signIn.mysteriousBonus</v>
+        <v>activity.signIn.collectionTime</v>
       </c>
       <c r="B176" t="str">
-        <v/>
+        <v>সময় যখন বোনাস দাবি করা যেতে পারে</v>
       </c>
       <c r="C176" t="str">
-        <v>Mysterious Bonus</v>
+        <v>Time When Bonuses Can Be Claimed</v>
+      </c>
+      <c r="D176" t="str">
+        <v>可领取奖金的时间</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>activity.signIn.actExpired</v>
+        <v>activity.signIn.mysteriousBonus</v>
       </c>
       <c r="B177" t="str">
-        <v/>
+        <v>রহস্যময় বোনাস</v>
       </c>
       <c r="C177" t="str">
-        <v>The Activity Has Expired</v>
+        <v>Mysterious Bonus</v>
+      </c>
+      <c r="D177" t="str">
+        <v>神秘奖金</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>activity.signIn.depositAmount</v>
+        <v>activity.signIn.actExpired</v>
       </c>
       <c r="B178" t="str">
-        <v/>
+        <v>কার্যকলাপ মেয়াদ শেষ হয়েছে</v>
       </c>
       <c r="C178" t="str">
-        <v>Deposit Range</v>
+        <v>The Activity Has Expired</v>
+      </c>
+      <c r="D178" t="str">
+        <v>活动已过期</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>activity.signIn.mysterious</v>
+        <v>activity.signIn.depositAmount</v>
       </c>
       <c r="B179" t="str">
-        <v/>
+        <v>জমা পরিসীমা</v>
       </c>
       <c r="C179" t="str">
-        <v>Mysterious Bonus</v>
+        <v>Deposit Range</v>
+      </c>
+      <c r="D179" t="str">
+        <v>存款范围</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>activity.initialRecharge.deposits</v>
+        <v>activity.signIn.mysterious</v>
       </c>
       <c r="B180" t="str">
-        <v/>
+        <v>রহস্যময় বোনাস</v>
       </c>
       <c r="C180" t="str">
-        <v>Deposits</v>
+        <v>Mysterious Bonus</v>
+      </c>
+      <c r="D180" t="str">
+        <v>神秘奖金</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>activity.initialRecharge.bonus</v>
+        <v>activity.initialRecharge.deposits</v>
       </c>
       <c r="B181" t="str">
-        <v/>
+        <v>জমা</v>
       </c>
       <c r="C181" t="str">
-        <v>Bonus</v>
+        <v>Deposits</v>
+      </c>
+      <c r="D181" t="str">
+        <v>存款</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>activity.initialRecharge.actDetails</v>
+        <v>activity.initialRecharge.bonus</v>
       </c>
       <c r="B182" t="str">
-        <v/>
+        <v>বোনাস</v>
       </c>
       <c r="C182" t="str">
-        <v>Activity Details</v>
+        <v>Bonus</v>
+      </c>
+      <c r="D182" t="str">
+        <v>奖金</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>activity.distriAgent.invitation</v>
+        <v>activity.initialRecharge.actDetails</v>
       </c>
       <c r="B183" t="str">
-        <v/>
+        <v>কার্যকলাপ বিবরণ</v>
       </c>
       <c r="C183" t="str">
-        <v>Invitation</v>
+        <v>Activity Details</v>
+      </c>
+      <c r="D183" t="str">
+        <v>活动详情</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>activity.distriAgent.myData</v>
+        <v>activity.distriAgent.invitation</v>
       </c>
       <c r="B184" t="str">
-        <v/>
+        <v>আমন্ত্রণ</v>
       </c>
       <c r="C184" t="str">
-        <v>My Data</v>
+        <v>Invitation</v>
+      </c>
+      <c r="D184" t="str">
+        <v>邀请</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>activity.distriAgent.commission</v>
+        <v>activity.distriAgent.myData</v>
       </c>
       <c r="B185" t="str">
-        <v/>
+        <v>আমার ডেটা</v>
       </c>
       <c r="C185" t="str">
-        <v>Commission</v>
+        <v>My Data</v>
+      </c>
+      <c r="D185" t="str">
+        <v>我的数据</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>activity.distriAgent.detailed</v>
+        <v>activity.distriAgent.commission</v>
       </c>
       <c r="B186" t="str">
-        <v/>
+        <v>কমিশন</v>
       </c>
       <c r="C186" t="str">
-        <v>Detailed</v>
+        <v>Commission</v>
+      </c>
+      <c r="D186" t="str">
+        <v>佣金</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>activity.distriAgent.FAQ</v>
+        <v>activity.distriAgent.detailed</v>
       </c>
       <c r="B187" t="str">
-        <v/>
+        <v>বিস্তারিত</v>
       </c>
       <c r="C187" t="str">
-        <v>FAQ</v>
+        <v>Detailed</v>
+      </c>
+      <c r="D187" t="str">
+        <v>详细信息</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>activity.distriAgent.myLink</v>
+        <v>activity.distriAgent.FAQ</v>
       </c>
       <c r="B188" t="str">
-        <v/>
+        <v>FAQ</v>
       </c>
       <c r="C188" t="str">
-        <v>My Link</v>
+        <v>FAQ</v>
+      </c>
+      <c r="D188" t="str">
+        <v>常见问题</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>activity.distriAgent.subtitle</v>
+        <v>activity.distriAgent.myLink</v>
       </c>
       <c r="B189" t="str">
-        <v/>
+        <v>আমার লিঙ্ক</v>
       </c>
       <c r="C189" t="str">
-        <v>Development and rewards for subordinates</v>
+        <v>My Link</v>
+      </c>
+      <c r="D189" t="str">
+        <v>我的链接</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>activity.distriAgent.directCommissions</v>
+        <v>activity.distriAgent.subtitle</v>
       </c>
       <c r="B190" t="str">
-        <v/>
+        <v>অধীনস্থদের জন্য উন্নয়ন এবং পুরষ্কার</v>
       </c>
       <c r="C190" t="str">
-        <v>Direct Commissions</v>
+        <v>Development and rewards for subordinates</v>
+      </c>
+      <c r="D190" t="str">
+        <v>发展和奖励下属</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>activity.distriAgent.teamCommission</v>
+        <v>activity.distriAgent.directCommissions</v>
       </c>
       <c r="B191" t="str">
-        <v/>
+        <v>সরাসরি কমিশন</v>
       </c>
       <c r="C191" t="str">
-        <v>Direct committees</v>
+        <v>Direct Commissions</v>
+      </c>
+      <c r="D191" t="str">
+        <v>直接委员会</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>activity.distriAgent.level</v>
+        <v>activity.distriAgent.teamCommission</v>
       </c>
       <c r="B192" t="str">
-        <v/>
+        <v>সরাসরি কমিটি</v>
       </c>
       <c r="C192" t="str">
-        <v>Level</v>
+        <v>Direct committees</v>
+      </c>
+      <c r="D192" t="str">
+        <v>直接委员会</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>activity.distriAgent.teamRollover</v>
+        <v>activity.distriAgent.level</v>
       </c>
       <c r="B193" t="str">
-        <v/>
+        <v>স্তর</v>
       </c>
       <c r="C193" t="str">
-        <v>Team Rollover</v>
+        <v>Level</v>
+      </c>
+      <c r="D193" t="str">
+        <v>级别</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>activity.distriAgent.proportion</v>
+        <v>activity.distriAgent.teamRollover</v>
       </c>
       <c r="B194" t="str">
-        <v/>
+        <v>দল রোলওভার</v>
       </c>
       <c r="C194" t="str">
-        <v>Proportion</v>
+        <v>Team Rollover</v>
+      </c>
+      <c r="D194" t="str">
+        <v>团队滚动</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>activity.distriAgent.today</v>
+        <v>activity.distriAgent.proportion</v>
       </c>
       <c r="B195" t="str">
-        <v/>
+        <v>অনুপাত</v>
       </c>
       <c r="C195" t="str">
-        <v>Today</v>
+        <v>Proportion</v>
+      </c>
+      <c r="D195" t="str">
+        <v>比例</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>activity.distriAgent.yesterday</v>
+        <v>activity.distriAgent.today</v>
       </c>
       <c r="B196" t="str">
-        <v/>
+        <v>আজ</v>
       </c>
       <c r="C196" t="str">
-        <v>Yesterday</v>
+        <v>Today</v>
+      </c>
+      <c r="D196" t="str">
+        <v>今天</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>activity.distriAgent.thisWeek</v>
+        <v>activity.distriAgent.yesterday</v>
       </c>
       <c r="B197" t="str">
-        <v/>
+        <v>গতকাল</v>
       </c>
       <c r="C197" t="str">
-        <v>This Week</v>
+        <v>Yesterday</v>
+      </c>
+      <c r="D197" t="str">
+        <v>昨天</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>activity.distriAgent.lastWeek</v>
+        <v>activity.distriAgent.thisWeek</v>
       </c>
       <c r="B198" t="str">
-        <v/>
+        <v>এই সপ্তাহে</v>
       </c>
       <c r="C198" t="str">
-        <v>Last Week</v>
+        <v>This Week</v>
+      </c>
+      <c r="D198" t="str">
+        <v>本周</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>activity.distriAgent.month</v>
+        <v>activity.distriAgent.lastWeek</v>
       </c>
       <c r="B199" t="str">
-        <v/>
+        <v>গত সপ্তাহে</v>
       </c>
       <c r="C199" t="str">
-        <v>This Month</v>
+        <v>Last Week</v>
+      </c>
+      <c r="D199" t="str">
+        <v>上周</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>activity.distriAgent.lastMonth</v>
+        <v>activity.distriAgent.month</v>
       </c>
       <c r="B200" t="str">
-        <v/>
+        <v>এই মাসে</v>
       </c>
       <c r="C200" t="str">
-        <v>Last Month</v>
+        <v>This Month</v>
+      </c>
+      <c r="D200" t="str">
+        <v>本月</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>activity.distriAgent.directCommission</v>
+        <v>activity.distriAgent.lastMonth</v>
       </c>
       <c r="B201" t="str">
-        <v/>
+        <v>গত মাসে</v>
       </c>
       <c r="C201" t="str">
-        <v>Direct Commission</v>
+        <v>Last Month</v>
+      </c>
+      <c r="D201" t="str">
+        <v>上个月</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>activity.distriAgent.teamCommittee</v>
+        <v>activity.distriAgent.directCommission</v>
       </c>
       <c r="B202" t="str">
-        <v/>
+        <v>সরাসরি কমিশন</v>
       </c>
       <c r="C202" t="str">
-        <v>Team Commission</v>
+        <v>Direct Commission</v>
+      </c>
+      <c r="D202" t="str">
+        <v>直接佣金</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>activity.distriAgent.totalCommissio</v>
+        <v>activity.distriAgent.teamCommittee</v>
       </c>
       <c r="B203" t="str">
-        <v/>
+        <v>দল কমিশন</v>
       </c>
       <c r="C203" t="str">
-        <v>Total Commissions</v>
+        <v>Team Commission</v>
+      </c>
+      <c r="D203" t="str">
+        <v>团队佣金</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>activity.distriAgent.directBets</v>
+        <v>activity.distriAgent.totalCommissio</v>
       </c>
       <c r="B204" t="str">
-        <v/>
+        <v>মোট কমিশন</v>
       </c>
       <c r="C204" t="str">
-        <v>Direct Bets</v>
+        <v>Total Commissions</v>
+      </c>
+      <c r="D204" t="str">
+        <v>总佣金</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>activity.distriAgent.teamBetting</v>
+        <v>activity.distriAgent.directBets</v>
       </c>
       <c r="B205" t="str">
-        <v/>
+        <v>সরাসরি বাজি</v>
       </c>
       <c r="C205" t="str">
-        <v>Team Betting</v>
+        <v>Direct Bets</v>
+      </c>
+      <c r="D205" t="str">
+        <v>直接投注</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>activity.distriAgent.totalBets</v>
+        <v>activity.distriAgent.teamBetting</v>
       </c>
       <c r="B206" t="str">
-        <v/>
+        <v>দল বেটিং</v>
       </c>
       <c r="C206" t="str">
-        <v>Total Bets</v>
+        <v>Team Betting</v>
+      </c>
+      <c r="D206" t="str">
+        <v>团队投注</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>activity.distriAgent.registerNow</v>
+        <v>activity.distriAgent.totalBets</v>
       </c>
       <c r="B207" t="str">
-        <v/>
+        <v>মোট বাজি</v>
       </c>
       <c r="C207" t="str">
-        <v>Direct Registration</v>
+        <v>Total Bets</v>
+      </c>
+      <c r="D207" t="str">
+        <v>投注总额</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>activity.distriAgent.directRegistration</v>
+        <v>activity.distriAgent.registerNow</v>
       </c>
       <c r="B208" t="str">
-        <v/>
+        <v>সরাসরি নিবন্ধন</v>
       </c>
       <c r="C208" t="str">
         <v>Direct Registration</v>
       </c>
+      <c r="D208" t="str">
+        <v>直接注册</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>activity.distriAgent.teamRegistration</v>
+        <v>activity.distriAgent.directRegistration</v>
       </c>
       <c r="B209" t="str">
-        <v/>
+        <v>সরাসরি নিবন্ধন</v>
       </c>
       <c r="C209" t="str">
-        <v>Team Registration</v>
+        <v>Direct Registration</v>
+      </c>
+      <c r="D209" t="str">
+        <v>直接注册</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>activity.distriAgent.totalRecord</v>
+        <v>activity.distriAgent.teamRegistration</v>
       </c>
       <c r="B210" t="str">
-        <v/>
+        <v>দল নিবন্ধন</v>
       </c>
       <c r="C210" t="str">
-        <v>Total Record</v>
+        <v>Team Registration</v>
+      </c>
+      <c r="D210" t="str">
+        <v>团队注册</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>activity.distriAgent.firstDeposit</v>
+        <v>activity.distriAgent.totalRecord</v>
       </c>
       <c r="B211" t="str">
-        <v/>
+        <v>মোট রেকর্ড</v>
       </c>
       <c r="C211" t="str">
-        <v>Direct First Deposit</v>
+        <v>Total Record</v>
+      </c>
+      <c r="D211" t="str">
+        <v>总记录</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>activity.distriAgent.teamFirstDeposit</v>
+        <v>activity.distriAgent.firstDeposit</v>
       </c>
       <c r="B212" t="str">
-        <v/>
+        <v>সরাসরি প্রথম আমানত</v>
       </c>
       <c r="C212" t="str">
-        <v>Team First Deposit</v>
+        <v>Direct First Deposit</v>
+      </c>
+      <c r="D212" t="str">
+        <v>直接首次存款</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>activity.distriAgent.totalInitial</v>
+        <v>activity.distriAgent.teamFirstDeposit</v>
       </c>
       <c r="B213" t="str">
-        <v/>
+        <v>দল প্রথম আমানত</v>
       </c>
       <c r="C213" t="str">
-        <v>Total Initial Deposit</v>
+        <v>Team First Deposit</v>
+      </c>
+      <c r="D213" t="str">
+        <v>团队首次存款</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>activity.distriAgent.directPlayer</v>
+        <v>activity.distriAgent.totalInitial</v>
       </c>
       <c r="B214" t="str">
-        <v/>
+        <v>মোট প্রাথমিক আমানত</v>
       </c>
       <c r="C214" t="str">
-        <v>Direct Player</v>
+        <v>Total Initial Deposit</v>
+      </c>
+      <c r="D214" t="str">
+        <v>首次存款总额</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>activity.distriAgent.rollover</v>
+        <v>activity.distriAgent.directPlayer</v>
       </c>
       <c r="B215" t="str">
-        <v/>
+        <v>সরাসরি প্লেয়ার</v>
       </c>
       <c r="C215" t="str">
-        <v>Rollover</v>
+        <v>Direct Player</v>
+      </c>
+      <c r="D215" t="str">
+        <v>直接球员</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>activity.distriAgent.downTeam</v>
+        <v>activity.distriAgent.rollover</v>
       </c>
       <c r="B216" t="str">
-        <v/>
+        <v>রোলওভার</v>
       </c>
       <c r="C216" t="str">
-        <v>Lower-level Team</v>
+        <v>Rollover</v>
+      </c>
+      <c r="D216" t="str">
+        <v>滚存</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>activity.distriAgent.sharing</v>
+        <v>activity.distriAgent.downTeam</v>
       </c>
       <c r="B217" t="str">
-        <v/>
+        <v>নিম্ন স্তরের দল</v>
       </c>
       <c r="C217" t="str">
-        <v>Quick sharing</v>
+        <v>Lower-level Team</v>
+      </c>
+      <c r="D217" t="str">
+        <v>下级团队</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>activity.distriAgent.registration</v>
+        <v>activity.distriAgent.sharing</v>
       </c>
       <c r="B218" t="str">
-        <v/>
+        <v>দ্রুত শেয়ারিং</v>
       </c>
       <c r="C218" t="str">
-        <v>Total registration</v>
+        <v>Quick sharing</v>
+      </c>
+      <c r="D218" t="str">
+        <v>快速分享</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>activity.levelRewardsPage.iron</v>
+        <v>activity.distriAgent.registration</v>
       </c>
       <c r="B219" t="str">
-        <v/>
+        <v>মোট নিবন্ধন</v>
       </c>
       <c r="C219" t="str">
-        <v>Iron</v>
+        <v>Total registration</v>
+      </c>
+      <c r="D219" t="str">
+        <v>注册总额</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>activity.levelRewardsPage.bronze</v>
+        <v>activity.levelRewardsPage.iron</v>
       </c>
       <c r="B220" t="str">
-        <v/>
+        <v>আয়রন</v>
       </c>
       <c r="C220" t="str">
-        <v>Bronze</v>
+        <v>Iron</v>
+      </c>
+      <c r="D220" t="str">
+        <v>铁</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>activity.levelRewardsPage.silver</v>
+        <v>activity.levelRewardsPage.bronze</v>
       </c>
       <c r="B221" t="str">
-        <v/>
+        <v>ব্রোঞ্জ</v>
       </c>
       <c r="C221" t="str">
-        <v>Silver</v>
+        <v>Bronze</v>
+      </c>
+      <c r="D221" t="str">
+        <v>铜牌</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>activity.levelRewardsPage.gold</v>
+        <v>activity.levelRewardsPage.silver</v>
       </c>
       <c r="B222" t="str">
-        <v/>
+        <v>সিলভার</v>
       </c>
       <c r="C222" t="str">
-        <v>Gold</v>
+        <v>Silver</v>
+      </c>
+      <c r="D222" t="str">
+        <v>银</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>activity.levelRewardsPage.platinum</v>
+        <v>activity.levelRewardsPage.gold</v>
       </c>
       <c r="B223" t="str">
-        <v/>
+        <v>সোনা</v>
       </c>
       <c r="C223" t="str">
-        <v>Platinum</v>
+        <v>Gold</v>
+      </c>
+      <c r="D223" t="str">
+        <v>金</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>activity.levelRewardsPage.diamond</v>
+        <v>activity.levelRewardsPage.platinum</v>
       </c>
       <c r="B224" t="str">
-        <v/>
+        <v>প্লাটিনাম</v>
       </c>
       <c r="C224" t="str">
-        <v>Diamond</v>
+        <v>Platinum</v>
+      </c>
+      <c r="D224" t="str">
+        <v>白金</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>activity.levelRewardsPage.actTitle</v>
+        <v>activity.levelRewardsPage.diamond</v>
       </c>
       <c r="B225" t="str">
-        <v/>
+        <v>হীরা</v>
       </c>
       <c r="C225" t="str">
-        <v>Game turnover in the last 7 days</v>
+        <v>Diamond</v>
+      </c>
+      <c r="D225" t="str">
+        <v>钻石级</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>activity.levelRewardsPage.day</v>
+        <v>activity.levelRewardsPage.actTitle</v>
       </c>
       <c r="B226" t="str">
-        <v/>
+        <v>গত 7 দিনে গেম টার্নওভার</v>
       </c>
       <c r="C226" t="str">
-        <v>Day</v>
+        <v>Game turnover in the last 7 days</v>
+      </c>
+      <c r="D226" t="str">
+        <v>最近 7 天的游戏营业额</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>activity.levelRewardsPage.toReceive</v>
+        <v>activity.levelRewardsPage.day</v>
       </c>
       <c r="B227" t="str">
-        <v/>
+        <v>দিন</v>
       </c>
       <c r="C227" t="str">
-        <v>To receive</v>
+        <v>Day</v>
+      </c>
+      <c r="D227" t="str">
+        <v>日</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>activity.levelRewardsPage.currentLevel</v>
+        <v>activity.levelRewardsPage.toReceive</v>
       </c>
       <c r="B228" t="str">
-        <v/>
+        <v>গ্রহণ করতে</v>
       </c>
       <c r="C228" t="str">
-        <v>Current level</v>
+        <v>To receive</v>
+      </c>
+      <c r="D228" t="str">
+        <v>接收</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>activity.levelRewardsPage.notFulfilled</v>
+        <v>activity.levelRewardsPage.currentLevel</v>
       </c>
       <c r="B229" t="str">
-        <v/>
+        <v>বর্তমান স্তর</v>
       </c>
       <c r="C229" t="str">
-        <v>Not fulfilled</v>
+        <v>Current level</v>
+      </c>
+      <c r="D229" t="str">
+        <v>当前等级</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>activity.levelRewardsPage.getBonusTitle</v>
+        <v>activity.levelRewardsPage.notFulfilled</v>
       </c>
       <c r="B230" t="str">
-        <v/>
+        <v>পূরণ হয়নি</v>
       </c>
       <c r="C230" t="str">
-        <v>Check in for the bonus.</v>
+        <v>Not fulfilled</v>
+      </c>
+      <c r="D230" t="str">
+        <v>未完成</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>activity.levelRewardsPage.Received</v>
+        <v>activity.levelRewardsPage.getBonusTitle</v>
       </c>
       <c r="B231" t="str">
-        <v/>
+        <v>বোনাস জন্য চেক ইন.</v>
       </c>
       <c r="C231" t="str">
-        <v>Received</v>
+        <v>Check in for the bonus.</v>
+      </c>
+      <c r="D231" t="str">
+        <v>签到领取奖金。</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>activity.websiteRebates.betting</v>
+        <v>activity.levelRewardsPage.Received</v>
       </c>
       <c r="B232" t="str">
-        <v/>
+        <v>গৃহীত</v>
       </c>
       <c r="C232" t="str">
-        <v>Betting</v>
+        <v>Received</v>
+      </c>
+      <c r="D232" t="str">
+        <v>已收到</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>activity.websiteRebates.return</v>
+        <v>activity.websiteRebates.betting</v>
       </c>
       <c r="B233" t="str">
-        <v/>
+        <v>পণ</v>
       </c>
       <c r="C233" t="str">
-        <v>Return</v>
+        <v>Betting</v>
+      </c>
+      <c r="D233" t="str">
+        <v>投注</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>activity.websiteRebates.promotionProgress</v>
+        <v>activity.websiteRebates.return</v>
       </c>
       <c r="B234" t="str">
-        <v/>
+        <v>প্রত্যাবর্তন</v>
       </c>
       <c r="C234" t="str">
-        <v>Promotion progress</v>
+        <v>Return</v>
+      </c>
+      <c r="D234" t="str">
+        <v>返回</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>activity.websiteRebates.nextReturn</v>
+        <v>activity.websiteRebates.promotionProgress</v>
       </c>
       <c r="B235" t="str">
-        <v/>
+        <v>প্রচারের অগ্রগতি</v>
       </c>
       <c r="C235" t="str">
-        <v>Next return</v>
+        <v>Promotion progress</v>
+      </c>
+      <c r="D235" t="str">
+        <v>推广进度</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>activity.websiteRebates.listTitle</v>
+        <v>activity.websiteRebates.nextReturn</v>
       </c>
       <c r="B236" t="str">
-        <v/>
+        <v>পরবর্তী রিটার্ন</v>
       </c>
       <c r="C236" t="str">
-        <v>Tabela de Referência de Rebate</v>
+        <v>Next return</v>
+      </c>
+      <c r="D236" t="str">
+        <v>下一次返还</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>activity.websiteRebates.tradingVolume</v>
+        <v>activity.websiteRebates.listTitle</v>
       </c>
       <c r="B237" t="str">
-        <v/>
+        <v>তাবেলা ডি রেফারেন্সিয়া ডি রেবেট</v>
       </c>
       <c r="C237" t="str">
-        <v>Volume of transactions</v>
+        <v>Tabela de Referência de Rebate</v>
+      </c>
+      <c r="D237" t="str">
+        <v>回扣推荐表</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>activity.websiteRebates.returnRate</v>
+        <v>activity.websiteRebates.tradingVolume</v>
       </c>
       <c r="B238" t="str">
-        <v/>
+        <v>লেনদেনের পরিমাণ</v>
       </c>
       <c r="C238" t="str">
-        <v>Rate of return</v>
+        <v>Volume of transactions</v>
+      </c>
+      <c r="D238" t="str">
+        <v>交易量</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>activity.superMemberDay.bettingVolume</v>
+        <v>activity.websiteRebates.returnRate</v>
       </c>
       <c r="B239" t="str">
-        <v/>
+        <v>রিটার্নের হার</v>
       </c>
       <c r="C239" t="str">
-        <v>Betting volume</v>
+        <v>Rate of return</v>
+      </c>
+      <c r="D239" t="str">
+        <v>返还率</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>activity.superMemberDay.days</v>
+        <v>activity.superMemberDay.bettingVolume</v>
       </c>
       <c r="B240" t="str">
-        <v/>
+        <v>বেটিং ভলিউম</v>
       </c>
       <c r="C240" t="str">
-        <v>Days</v>
+        <v>Betting volume</v>
+      </c>
+      <c r="D240" t="str">
+        <v>投注额</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>activity.superMemberDay.bettingDays</v>
+        <v>activity.superMemberDay.days</v>
       </c>
       <c r="B241" t="str">
-        <v/>
+        <v>দিন</v>
       </c>
       <c r="C241" t="str">
-        <v>Betting days</v>
+        <v>Days</v>
+      </c>
+      <c r="D241" t="str">
+        <v>天数</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>activity.superMemberDay.errTitle</v>
+        <v>activity.superMemberDay.bettingDays</v>
       </c>
       <c r="B242" t="str">
-        <v/>
+        <v>বাজির দিন</v>
       </c>
       <c r="C242" t="str">
-        <v>Design Date:</v>
+        <v>Betting days</v>
+      </c>
+      <c r="D242" t="str">
+        <v>投注天数</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>activity.superMemberDay.errContent</v>
+        <v>activity.superMemberDay.errTitle</v>
       </c>
       <c r="B243" t="str">
-        <v/>
+        <v>নকশা তারিখ:</v>
       </c>
       <c r="C243" t="str">
-        <v>Please buy your membership prize on the date of the draw.</v>
+        <v>Design Date:</v>
+      </c>
+      <c r="D243" t="str">
+        <v>设计日期：</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>activity.superMemberDay.resContent</v>
+        <v>activity.superMemberDay.errContent</v>
       </c>
       <c r="B244" t="str">
-        <v/>
+        <v>অনুগ্রহ করে ড্রয়ের তারিখে আপনার সদস্যপদ পুরষ্কার কিনুন।</v>
       </c>
       <c r="C244" t="str">
-        <v>Congratulations, you've qualified for the lucky draw. Log on to the site on the day of the draw to withdraw your Member's Day jackpot.</v>
+        <v>Please buy your membership prize on the date of the draw.</v>
+      </c>
+      <c r="D244" t="str">
+        <v>请在抽奖日期购买会员奖品。</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>activity.superMemberDay.receive</v>
+        <v>activity.superMemberDay.resContent</v>
       </c>
       <c r="B245" t="str">
-        <v/>
+        <v>অভিনন্দন, আপনি ভাগ্যবান ড্রয়ের জন্য যোগ্যতা অর্জন করেছেন। আপনার সদস্য দিবসের জ্যাকপট প্রত্যাহার করতে ড্রয়ের দিনে সাইটে লগ ইন করুন।</v>
       </c>
       <c r="C245" t="str">
-        <v>Receive</v>
+        <v>Congratulations, you've qualified for the lucky draw. Log on to the site on the day of the draw to withdraw your Member's Day jackpot.</v>
+      </c>
+      <c r="D245" t="str">
+        <v>恭喜您，您已获得抽奖资格。请在抽奖日当天登录网站，提取您的会员日大奖。</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
+        <v>activity.superMemberDay.receive</v>
+      </c>
+      <c r="B246" t="str">
+        <v>গ্রহণ করুন</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Receive</v>
+      </c>
+      <c r="D246" t="str">
+        <v>领取</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
         <v>currencyType.pt</v>
       </c>
-      <c r="B246" t="str">
+      <c r="B247" t="str">
+        <v>৳</v>
+      </c>
+      <c r="C247" t="str">
+        <v>BDT</v>
+      </c>
+      <c r="D247" t="str">
+        <v>钱币符号</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>other.language</v>
+      </c>
+      <c r="B248" t="str">
+        <v>ভাষা</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Language</v>
+      </c>
+      <c r="D248" t="str">
+        <v>语言</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>other.useCurrentLang</v>
+      </c>
+      <c r="B249" t="str">
+        <v>ভাষা</v>
+      </c>
+      <c r="C249" t="str">
+        <v>English</v>
+      </c>
+      <c r="D249" t="str">
+        <v>中文</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>tip.nomore</v>
+      </c>
+      <c r="B250" t="str">
         <v/>
       </c>
-      <c r="C246" t="str">
-        <v>R$</v>
+      <c r="C250" t="str">
+        <v>No more data</v>
+      </c>
+      <c r="D250" t="str">
+        <v>没有更多数据了</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C246"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D250"/>
   </ignoredErrors>
 </worksheet>
 </file>